--- a/config_10.27/permission_server_config.xlsx
+++ b/config_10.27/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1840">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -6647,15 +6647,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>VIP2直通礼包（只有VIP2显示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP3直通礼包（只有VIP2显示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP4直通礼包（只有VIP2显示）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8566,6 +8558,26 @@
   </si>
   <si>
     <t>actp_buy_gift_bag_class_wsj_v4v10_040</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP2直通礼包（只有VIP1显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP4直通礼包（只有VIP3显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip0_buygift</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包（只有VIP0显示）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0及以下</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9318,11 +9330,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q398"/>
+  <dimension ref="A1:Q401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A399" sqref="A399"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10507,7 +10519,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10525,7 +10537,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -10543,7 +10555,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -10561,7 +10573,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -10579,7 +10591,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C74" s="57"/>
       <c r="D74" s="9"/>
@@ -10591,7 +10603,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C75" s="57"/>
       <c r="D75" s="9"/>
@@ -10604,7 +10616,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C76" s="57"/>
       <c r="D76" s="9"/>
@@ -10617,7 +10629,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C77" s="57">
         <v>22</v>
@@ -10632,7 +10644,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -10647,7 +10659,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -10662,7 +10674,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -10677,7 +10689,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -10692,7 +10704,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -11264,7 +11276,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B142" s="53" t="s">
         <v>249</v>
@@ -11385,10 +11397,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="61" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C154" s="14">
         <v>267</v>
@@ -11396,10 +11408,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="61" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C155" s="14">
         <v>268</v>
@@ -11407,10 +11419,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="61" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C156" s="14">
         <v>269</v>
@@ -11418,10 +11430,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="61" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C157" s="14">
         <v>270</v>
@@ -11429,10 +11441,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="61" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C158" s="14">
         <v>271</v>
@@ -11440,10 +11452,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="61" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C159" s="14">
         <v>272</v>
@@ -11451,10 +11463,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="61" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C160" s="14">
         <v>273</v>
@@ -11462,10 +11474,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="61" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C161" s="14">
         <v>274</v>
@@ -11473,10 +11485,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="61" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C162" s="14">
         <v>275</v>
@@ -11484,10 +11496,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="61" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C163" s="14">
         <v>276</v>
@@ -11495,10 +11507,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="61" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C164" s="14">
         <v>277</v>
@@ -11506,10 +11518,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="61" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C165" s="14">
         <v>278</v>
@@ -11517,10 +11529,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="61" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C166" s="14">
         <v>279</v>
@@ -11666,7 +11678,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -11851,7 +11863,7 @@
     </row>
     <row r="200" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>327</v>
@@ -11881,7 +11893,7 @@
     </row>
     <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="34" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>332</v>
@@ -11896,7 +11908,7 @@
     </row>
     <row r="203" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="34" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>334</v>
@@ -11911,7 +11923,7 @@
     </row>
     <row r="204" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="60" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B204" s="60" t="s">
         <v>1187</v>
@@ -12165,7 +12177,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>374</v>
@@ -13301,7 +13313,7 @@
         <v>1460</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C360" s="3">
         <v>91</v>
@@ -13309,267 +13321,282 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="27" t="s">
-        <v>1478</v>
+        <v>1837</v>
       </c>
       <c r="B362" s="34" t="s">
-        <v>1470</v>
+        <v>1838</v>
       </c>
       <c r="C362" s="3">
-        <v>242</v>
+        <v>332</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="27" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B363" s="27" t="s">
-        <v>1471</v>
+        <v>1476</v>
+      </c>
+      <c r="B363" s="34" t="s">
+        <v>1835</v>
       </c>
       <c r="C363" s="3">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B364" s="27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C364" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="27" t="s">
         <v>1472</v>
       </c>
-      <c r="C364" s="3">
+      <c r="B365" s="27" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C365" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="3" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B367" s="27" t="s">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B368" s="27" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C368" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="27" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B370" s="27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C370" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C371" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="27" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B373" s="27" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C373" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C375" s="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="27" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B377" s="27" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C377" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="27" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B379" s="27" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C379" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="27" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B381" s="27" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C381" s="3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="27" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B383" s="27" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C383" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="27" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B385" s="27" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C385" s="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="27" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B387" s="3" t="s">
         <v>1771</v>
       </c>
-      <c r="C367" s="3">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="27" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B369" s="27" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C369" s="3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C370" s="3">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="27" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B372" s="27" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C372" s="3">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C374" s="3">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="27" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B376" s="27" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C376" s="3">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="27" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B378" s="27" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C378" s="3">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="27" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B380" s="27" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C380" s="3">
+      <c r="C387" s="3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="27" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B389" s="27" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C389" s="3">
         <v>319</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="27" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B382" s="27" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C382" s="3">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="27" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B384" s="27" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C384" s="3">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="27" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C386" s="3">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="27" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B388" s="27" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C388" s="3">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="34" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B390" s="34" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C390" s="8">
-        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="34" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="C391" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="34" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="C392" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="C393" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C394" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="C395" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="C396" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="C397" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="C398" s="8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="34" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B399" s="34" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C399" s="8">
         <v>135</v>
       </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="27"/>
+      <c r="B401" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -13587,7 +13614,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="E308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C327" sqref="C327"/>
+      <selection pane="bottomRight" activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13766,7 +13793,7 @@
         <v>1050</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>1182</v>
@@ -13925,7 +13952,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1181</v>
@@ -19637,7 +19664,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -21685,7 +21712,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="79" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D237" s="79" t="s">
         <v>1207</v>
@@ -22447,10 +22474,10 @@
         <v>1</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G260" s="26">
         <v>246</v>
@@ -22468,7 +22495,7 @@
         <v>1597075200</v>
       </c>
       <c r="L260" s="16" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -22479,10 +22506,10 @@
         <v>1</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="G261" s="26">
         <v>247</v>
@@ -22494,13 +22521,13 @@
         <v>1</v>
       </c>
       <c r="J261" s="16" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="K261" s="17">
         <v>1597075200</v>
       </c>
       <c r="L261" s="16" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -22511,10 +22538,10 @@
         <v>1</v>
       </c>
       <c r="C262" s="30" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="G262" s="26">
         <v>245</v>
@@ -22526,13 +22553,13 @@
         <v>1</v>
       </c>
       <c r="J262" s="16" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="K262" s="17">
         <v>1597075200</v>
       </c>
       <c r="L262" s="16" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -22543,10 +22570,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="53" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="G263" s="26">
         <v>245</v>
@@ -22564,7 +22591,7 @@
         <v>1597075200</v>
       </c>
       <c r="L263" s="16" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -22575,10 +22602,10 @@
         <v>1</v>
       </c>
       <c r="C264" s="30" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D264" s="53" t="s">
         <v>1519</v>
-      </c>
-      <c r="D264" s="53" t="s">
-        <v>1521</v>
       </c>
       <c r="G264" s="26">
         <v>250</v>
@@ -22596,7 +22623,7 @@
         <v>1597707000</v>
       </c>
       <c r="L264" s="26" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -22607,10 +22634,10 @@
         <v>1</v>
       </c>
       <c r="C265" s="26" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D265" s="53" t="s">
         <v>1520</v>
-      </c>
-      <c r="D265" s="53" t="s">
-        <v>1522</v>
       </c>
       <c r="G265" s="26">
         <v>251</v>
@@ -22628,7 +22655,7 @@
         <v>1597707000</v>
       </c>
       <c r="L265" s="26" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -22639,10 +22666,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="G266" s="26">
         <v>252</v>
@@ -22660,7 +22687,7 @@
         <v>1597680000</v>
       </c>
       <c r="L266" s="26" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -22671,10 +22698,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="D267" s="30" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="G267" s="26">
         <v>253</v>
@@ -22692,7 +22719,7 @@
         <v>1597707000</v>
       </c>
       <c r="L267" s="26" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -22703,10 +22730,10 @@
         <v>1</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D268" s="30" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="G268" s="26">
         <v>254</v>
@@ -22724,7 +22751,7 @@
         <v>1597707000</v>
       </c>
       <c r="L268" s="26" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -22735,10 +22762,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D269" s="30" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="G269" s="26">
         <v>255</v>
@@ -22756,7 +22783,7 @@
         <v>1597707000</v>
       </c>
       <c r="L269" s="26" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="270" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22767,10 +22794,10 @@
         <v>1</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="17"/>
@@ -22784,13 +22811,13 @@
         <v>1</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="K270" s="17">
         <v>1598311800</v>
       </c>
       <c r="L270" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22801,10 +22828,10 @@
         <v>1</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E271" s="17"/>
       <c r="F271" s="17"/>
@@ -22818,13 +22845,13 @@
         <v>1</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="K271" s="17">
         <v>1598311800</v>
       </c>
       <c r="L271" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="272" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22835,10 +22862,10 @@
         <v>1</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17"/>
@@ -22858,7 +22885,7 @@
         <v>1598311800</v>
       </c>
       <c r="L272" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="273" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22869,10 +22896,10 @@
         <v>1</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E273" s="17"/>
       <c r="F273" s="17"/>
@@ -22892,7 +22919,7 @@
         <v>1598311800</v>
       </c>
       <c r="L273" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="274" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22903,10 +22930,10 @@
         <v>1</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E274" s="17"/>
       <c r="F274" s="17"/>
@@ -22926,7 +22953,7 @@
         <v>1598311800</v>
       </c>
       <c r="L274" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22937,10 +22964,10 @@
         <v>1</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E275" s="17"/>
       <c r="F275" s="17"/>
@@ -22960,7 +22987,7 @@
         <v>1598284800</v>
       </c>
       <c r="L275" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="276" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -22971,10 +22998,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E276" s="17"/>
       <c r="F276" s="17"/>
@@ -22994,7 +23021,7 @@
         <v>1598284800</v>
       </c>
       <c r="L276" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="277" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23005,10 +23032,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -23022,13 +23049,13 @@
         <v>1</v>
       </c>
       <c r="J277" s="16" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="K277" s="17">
         <v>1598916600</v>
       </c>
       <c r="L277" s="16" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="278" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23039,10 +23066,10 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="17"/>
@@ -23062,7 +23089,7 @@
         <v>1598889600</v>
       </c>
       <c r="L278" s="16" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="279" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
@@ -23073,10 +23100,10 @@
         <v>0</v>
       </c>
       <c r="C279" s="96" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -23107,10 +23134,10 @@
         <v>0</v>
       </c>
       <c r="C280" s="96" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D280" s="96" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E280" s="95"/>
       <c r="F280" s="95"/>
@@ -23141,10 +23168,10 @@
         <v>0</v>
       </c>
       <c r="C281" s="96" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D281" s="96" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E281" s="95"/>
       <c r="F281" s="95"/>
@@ -23175,10 +23202,10 @@
         <v>0</v>
       </c>
       <c r="C282" s="96" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D282" s="96" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E282" s="95"/>
       <c r="F282" s="95"/>
@@ -23209,10 +23236,10 @@
         <v>0</v>
       </c>
       <c r="C283" s="96" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D283" s="96" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E283" s="95"/>
       <c r="F283" s="95"/>
@@ -23243,10 +23270,10 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -23260,13 +23287,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23277,10 +23304,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -23300,7 +23327,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23311,10 +23338,10 @@
         <v>1</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -23334,7 +23361,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23345,10 +23372,10 @@
         <v>1</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -23368,7 +23395,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -23379,10 +23406,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D288" s="16" t="s">
         <v>1657</v>
-      </c>
-      <c r="D288" s="16" t="s">
-        <v>1659</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -23402,7 +23429,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23413,10 +23440,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="78" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D289" s="78" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="E289" s="78"/>
       <c r="F289" s="78"/>
@@ -23430,13 +23457,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="78" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="K289" s="78">
         <v>1600128000</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23447,10 +23474,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="78" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D290" s="78" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="E290" s="78"/>
       <c r="F290" s="78"/>
@@ -23464,13 +23491,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="78" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="K290" s="78">
         <v>1600128000</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23481,10 +23508,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="79" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D291" s="78" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E291" s="78"/>
       <c r="F291" s="78"/>
@@ -23498,13 +23525,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="78" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="K291" s="78">
         <v>1600128000</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23515,10 +23542,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -23532,13 +23559,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="78" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="K292" s="78">
         <v>1600099200</v>
       </c>
       <c r="L292" s="78" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -23549,10 +23576,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -23581,10 +23608,10 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="G294" s="17">
         <v>299</v>
@@ -23613,10 +23640,10 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="G295" s="17">
         <v>300</v>
@@ -23645,10 +23672,10 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G296" s="17">
         <v>301</v>
@@ -23677,10 +23704,10 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="G297" s="17">
         <v>302</v>
@@ -23709,10 +23736,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -23741,10 +23768,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -23773,10 +23800,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -23805,10 +23832,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -23837,10 +23864,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -23869,10 +23896,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D303" s="16" t="s">
         <v>1700</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>1702</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -23901,10 +23928,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D304" s="30" t="s">
         <v>1701</v>
-      </c>
-      <c r="D304" s="30" t="s">
-        <v>1703</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -23933,10 +23960,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -23965,10 +23992,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -23997,10 +24024,10 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="G307" s="26">
         <v>312</v>
@@ -24029,10 +24056,10 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G308" s="26">
         <v>313</v>
@@ -24061,10 +24088,10 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="G309" s="26">
         <v>314</v>
@@ -24093,10 +24120,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -24125,10 +24152,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -24157,10 +24184,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -24189,10 +24216,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -24221,10 +24248,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -24253,10 +24280,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -24285,10 +24312,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -24308,7 +24335,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -24319,10 +24346,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D317" s="30" t="s">
         <v>1751</v>
-      </c>
-      <c r="D317" s="30" t="s">
-        <v>1753</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -24340,7 +24367,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -24351,10 +24378,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -24372,7 +24399,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -24383,10 +24410,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -24404,7 +24431,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -24415,10 +24442,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -24447,10 +24474,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -24468,7 +24495,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -24479,10 +24506,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -24500,7 +24527,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -24511,10 +24538,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -24532,7 +24559,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -24543,10 +24570,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -24575,10 +24602,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -24607,10 +24634,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -24628,7 +24655,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -24639,10 +24666,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -24660,7 +24687,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
   </sheetData>
@@ -24676,11 +24703,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I835"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C802" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C809" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A830" sqref="A830"/>
+      <selection pane="bottomRight" activeCell="G831" sqref="G831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25195,7 +25222,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D21" s="8">
         <v>1583769600</v>
@@ -25264,7 +25291,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1053</v>
@@ -26046,7 +26073,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1058</v>
@@ -26391,7 +26418,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1051</v>
@@ -26739,7 +26766,7 @@
         <v>866</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E88" s="8">
         <v>2</v>
@@ -26831,7 +26858,7 @@
         <v>866</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E92" s="8">
         <v>2</v>
@@ -28809,7 +28836,7 @@
         <v>1046</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -28818,7 +28845,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29200,7 +29227,7 @@
         <v>1046</v>
       </c>
       <c r="D195" s="94" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E195" s="14">
         <v>2</v>
@@ -29209,7 +29236,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -29220,7 +29247,7 @@
         <v>80</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>931</v>
@@ -34758,7 +34785,7 @@
         <v>898</v>
       </c>
       <c r="D436" s="53" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E436" s="9">
         <v>5</v>
@@ -34767,7 +34794,7 @@
         <v>1</v>
       </c>
       <c r="G436" s="53" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
@@ -34781,7 +34808,7 @@
         <v>898</v>
       </c>
       <c r="D437" s="53" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E437" s="9">
         <v>2</v>
@@ -34790,7 +34817,7 @@
         <v>2</v>
       </c>
       <c r="G437" s="53" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="438" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -37446,7 +37473,7 @@
         <v>200</v>
       </c>
       <c r="C553" s="19" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D553" s="19" t="s">
         <v>1071</v>
@@ -37987,7 +38014,7 @@
         <v>2</v>
       </c>
       <c r="G576" s="10" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
@@ -38033,7 +38060,7 @@
         <v>2</v>
       </c>
       <c r="G578" s="10" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
@@ -38056,7 +38083,7 @@
         <v>1</v>
       </c>
       <c r="G579" s="10" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
@@ -38079,7 +38106,7 @@
         <v>2</v>
       </c>
       <c r="G580" s="10" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
@@ -38148,7 +38175,7 @@
         <v>1</v>
       </c>
       <c r="G583" s="10" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
@@ -38171,7 +38198,7 @@
         <v>2</v>
       </c>
       <c r="G584" s="10" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
@@ -38194,7 +38221,7 @@
         <v>1</v>
       </c>
       <c r="G585" s="10" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
@@ -38217,7 +38244,7 @@
         <v>2</v>
       </c>
       <c r="G586" s="10" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
@@ -38286,7 +38313,7 @@
         <v>1</v>
       </c>
       <c r="G589" s="10" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
@@ -38309,7 +38336,7 @@
         <v>2</v>
       </c>
       <c r="G590" s="10" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
@@ -38332,7 +38359,7 @@
         <v>1</v>
       </c>
       <c r="G591" s="10" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
@@ -38355,7 +38382,7 @@
         <v>2</v>
       </c>
       <c r="G592" s="10" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
@@ -38378,7 +38405,7 @@
         <v>1</v>
       </c>
       <c r="G593" s="10" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.2">
@@ -38424,7 +38451,7 @@
         <v>1</v>
       </c>
       <c r="G595" s="10" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.2">
@@ -38447,7 +38474,7 @@
         <v>2</v>
       </c>
       <c r="G596" s="10" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -38485,7 +38512,7 @@
         <v>1169</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -38494,7 +38521,7 @@
         <v>1</v>
       </c>
       <c r="G598" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
@@ -38531,7 +38558,7 @@
         <v>1169</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -38540,7 +38567,7 @@
         <v>2</v>
       </c>
       <c r="G600" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="601" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38554,7 +38581,7 @@
         <v>1169</v>
       </c>
       <c r="D601" s="15" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E601" s="14">
         <v>2</v>
@@ -38563,7 +38590,7 @@
         <v>3</v>
       </c>
       <c r="G601" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="602" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38600,7 +38627,7 @@
         <v>1169</v>
       </c>
       <c r="D603" s="15" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E603" s="14">
         <v>5</v>
@@ -38609,7 +38636,7 @@
         <v>1</v>
       </c>
       <c r="G603" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="604" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38646,7 +38673,7 @@
         <v>1169</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E605" s="14">
         <v>5</v>
@@ -38655,7 +38682,7 @@
         <v>2</v>
       </c>
       <c r="G605" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="606" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38669,7 +38696,7 @@
         <v>1169</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -38678,7 +38705,7 @@
         <v>3</v>
       </c>
       <c r="G606" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
@@ -38715,7 +38742,7 @@
         <v>1169</v>
       </c>
       <c r="D608" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -38724,7 +38751,7 @@
         <v>1</v>
       </c>
       <c r="G608" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
@@ -38761,7 +38788,7 @@
         <v>1169</v>
       </c>
       <c r="D610" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -38770,7 +38797,7 @@
         <v>2</v>
       </c>
       <c r="G610" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="611" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38784,7 +38811,7 @@
         <v>1169</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -38793,7 +38820,7 @@
         <v>3</v>
       </c>
       <c r="G611" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
@@ -38830,7 +38857,7 @@
         <v>1169</v>
       </c>
       <c r="D613" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E613" s="8">
         <v>5</v>
@@ -38839,7 +38866,7 @@
         <v>1</v>
       </c>
       <c r="G613" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
@@ -38876,7 +38903,7 @@
         <v>1169</v>
       </c>
       <c r="D615" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E615" s="8">
         <v>5</v>
@@ -38885,7 +38912,7 @@
         <v>2</v>
       </c>
       <c r="G615" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="616" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -38899,7 +38926,7 @@
         <v>1169</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E616" s="14">
         <v>2</v>
@@ -38908,7 +38935,7 @@
         <v>3</v>
       </c>
       <c r="G616" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
@@ -38945,7 +38972,7 @@
         <v>1169</v>
       </c>
       <c r="D618" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -38954,7 +38981,7 @@
         <v>1</v>
       </c>
       <c r="G618" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
@@ -38991,7 +39018,7 @@
         <v>1169</v>
       </c>
       <c r="D620" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -39000,7 +39027,7 @@
         <v>2</v>
       </c>
       <c r="G620" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="621" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39014,7 +39041,7 @@
         <v>1169</v>
       </c>
       <c r="D621" s="15" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E621" s="14">
         <v>2</v>
@@ -39023,7 +39050,7 @@
         <v>3</v>
       </c>
       <c r="G621" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
@@ -39060,7 +39087,7 @@
         <v>1169</v>
       </c>
       <c r="D623" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E623" s="8">
         <v>5</v>
@@ -39069,7 +39096,7 @@
         <v>1</v>
       </c>
       <c r="G623" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
@@ -39106,7 +39133,7 @@
         <v>1169</v>
       </c>
       <c r="D625" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E625" s="8">
         <v>5</v>
@@ -39115,7 +39142,7 @@
         <v>2</v>
       </c>
       <c r="G625" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="626" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -39129,7 +39156,7 @@
         <v>1169</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -39138,7 +39165,7 @@
         <v>3</v>
       </c>
       <c r="G626" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.2">
@@ -39397,7 +39424,7 @@
         <v>1</v>
       </c>
       <c r="G637" s="10" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.2">
@@ -39420,7 +39447,7 @@
         <v>1</v>
       </c>
       <c r="G638" s="10" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
@@ -39443,7 +39470,7 @@
         <v>1</v>
       </c>
       <c r="G639" s="10" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
@@ -39477,7 +39504,7 @@
         <v>246</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D641" s="8">
         <v>1</v>
@@ -39489,7 +39516,7 @@
         <v>1</v>
       </c>
       <c r="G641" s="10" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="642" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39500,7 +39527,7 @@
         <v>246</v>
       </c>
       <c r="C642" s="10" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="D642" s="8">
         <v>3</v>
@@ -39512,7 +39539,7 @@
         <v>1</v>
       </c>
       <c r="G642" s="10" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="643" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39604,7 +39631,7 @@
         <v>1</v>
       </c>
       <c r="G646" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="647" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39615,7 +39642,7 @@
         <v>247</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D647" s="8">
         <v>10</v>
@@ -39627,7 +39654,7 @@
         <v>1</v>
       </c>
       <c r="G647" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="648" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39664,7 +39691,7 @@
         <v>1046</v>
       </c>
       <c r="D649" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E649" s="8">
         <v>2</v>
@@ -39673,7 +39700,7 @@
         <v>1</v>
       </c>
       <c r="G649" s="53" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
@@ -39696,7 +39723,7 @@
         <v>1</v>
       </c>
       <c r="G650" s="10" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
@@ -39719,7 +39746,7 @@
         <v>2</v>
       </c>
       <c r="G651" s="10" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
@@ -39799,7 +39826,7 @@
         <v>253</v>
       </c>
       <c r="C655" s="10" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D655" s="8">
         <v>1</v>
@@ -39811,7 +39838,7 @@
         <v>1</v>
       </c>
       <c r="G655" s="10" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
@@ -39822,7 +39849,7 @@
         <v>253</v>
       </c>
       <c r="C656" s="10" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="D656" s="8">
         <v>3</v>
@@ -39834,7 +39861,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="10" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
@@ -39926,7 +39953,7 @@
         <v>1</v>
       </c>
       <c r="G660" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
@@ -39937,7 +39964,7 @@
         <v>254</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D661" s="8">
         <v>7</v>
@@ -39949,7 +39976,7 @@
         <v>1</v>
       </c>
       <c r="G661" s="10" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
@@ -39995,7 +40022,7 @@
         <v>1</v>
       </c>
       <c r="G663" s="10" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
@@ -40006,7 +40033,7 @@
         <v>255</v>
       </c>
       <c r="C664" s="10" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D664" s="8">
         <v>10</v>
@@ -40018,7 +40045,7 @@
         <v>1</v>
       </c>
       <c r="G664" s="10" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
@@ -40087,7 +40114,7 @@
         <v>1</v>
       </c>
       <c r="G667" s="9" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
@@ -40110,7 +40137,7 @@
         <v>1</v>
       </c>
       <c r="G668" s="10" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
@@ -40124,7 +40151,7 @@
         <v>1169</v>
       </c>
       <c r="D669" s="10" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E669" s="8">
         <v>2</v>
@@ -40133,7 +40160,7 @@
         <v>1</v>
       </c>
       <c r="G669" s="10" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
@@ -40144,7 +40171,7 @@
         <v>258</v>
       </c>
       <c r="C670" s="10" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D670" s="10">
         <v>1598317200</v>
@@ -40156,7 +40183,7 @@
         <v>1</v>
       </c>
       <c r="G670" s="10" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
@@ -40225,7 +40252,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="10" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
@@ -40259,7 +40286,7 @@
         <v>263</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D675" s="10" t="s">
         <v>921</v>
@@ -40271,7 +40298,7 @@
         <v>1</v>
       </c>
       <c r="G675" s="10" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
@@ -40363,7 +40390,7 @@
         <v>2</v>
       </c>
       <c r="G679" s="10" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="680" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40420,7 +40447,7 @@
         <v>267</v>
       </c>
       <c r="C682" s="10" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D682" s="8">
         <v>0</v>
@@ -40432,7 +40459,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="10" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
@@ -40443,7 +40470,7 @@
         <v>268</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D683" s="8">
         <v>1</v>
@@ -40455,7 +40482,7 @@
         <v>1</v>
       </c>
       <c r="G683" s="10" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
@@ -40466,7 +40493,7 @@
         <v>269</v>
       </c>
       <c r="C684" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D684" s="8">
         <v>2</v>
@@ -40478,7 +40505,7 @@
         <v>1</v>
       </c>
       <c r="G684" s="10" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
@@ -40489,7 +40516,7 @@
         <v>270</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D685" s="8">
         <v>3</v>
@@ -40501,7 +40528,7 @@
         <v>1</v>
       </c>
       <c r="G685" s="10" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
@@ -40512,7 +40539,7 @@
         <v>271</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D686" s="8">
         <v>4</v>
@@ -40524,7 +40551,7 @@
         <v>1</v>
       </c>
       <c r="G686" s="10" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
@@ -40535,7 +40562,7 @@
         <v>272</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D687" s="8">
         <v>5</v>
@@ -40547,7 +40574,7 @@
         <v>1</v>
       </c>
       <c r="G687" s="10" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
@@ -40558,7 +40585,7 @@
         <v>273</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D688" s="8">
         <v>6</v>
@@ -40570,7 +40597,7 @@
         <v>1</v>
       </c>
       <c r="G688" s="10" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
@@ -40581,7 +40608,7 @@
         <v>274</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D689" s="8">
         <v>7</v>
@@ -40593,7 +40620,7 @@
         <v>1</v>
       </c>
       <c r="G689" s="10" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
@@ -40604,7 +40631,7 @@
         <v>275</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D690" s="8">
         <v>8</v>
@@ -40616,7 +40643,7 @@
         <v>1</v>
       </c>
       <c r="G690" s="10" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
@@ -40627,7 +40654,7 @@
         <v>276</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D691" s="8">
         <v>9</v>
@@ -40639,7 +40666,7 @@
         <v>1</v>
       </c>
       <c r="G691" s="10" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
@@ -40650,7 +40677,7 @@
         <v>277</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D692" s="8">
         <v>10</v>
@@ -40662,7 +40689,7 @@
         <v>1</v>
       </c>
       <c r="G692" s="10" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
@@ -40673,7 +40700,7 @@
         <v>278</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D693" s="8">
         <v>11</v>
@@ -40685,7 +40712,7 @@
         <v>1</v>
       </c>
       <c r="G693" s="10" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.2">
@@ -40696,7 +40723,7 @@
         <v>279</v>
       </c>
       <c r="C694" s="10" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D694" s="8">
         <v>12</v>
@@ -40708,7 +40735,7 @@
         <v>1</v>
       </c>
       <c r="G694" s="10" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.2">
@@ -40777,7 +40804,7 @@
         <v>1</v>
       </c>
       <c r="G697" s="10" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.2">
@@ -40788,10 +40815,10 @@
         <v>282</v>
       </c>
       <c r="C698" s="10" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D698" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E698" s="8">
         <v>2</v>
@@ -40800,7 +40827,7 @@
         <v>1</v>
       </c>
       <c r="G698" s="10" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
@@ -40857,7 +40884,7 @@
         <v>284</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D701" s="8">
         <v>1</v>
@@ -40869,7 +40896,7 @@
         <v>1</v>
       </c>
       <c r="G701" s="10" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.2">
@@ -40880,7 +40907,7 @@
         <v>284</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D702" s="8">
         <v>3</v>
@@ -40892,7 +40919,7 @@
         <v>1</v>
       </c>
       <c r="G702" s="10" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
@@ -40903,7 +40930,7 @@
         <v>285</v>
       </c>
       <c r="C703" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D703" s="8">
         <v>4</v>
@@ -40915,7 +40942,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
@@ -40926,7 +40953,7 @@
         <v>285</v>
       </c>
       <c r="C704" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D704" s="8">
         <v>6</v>
@@ -40938,7 +40965,7 @@
         <v>1</v>
       </c>
       <c r="G704" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
@@ -40949,7 +40976,7 @@
         <v>286</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D705" s="8">
         <v>7</v>
@@ -40961,7 +40988,7 @@
         <v>1</v>
       </c>
       <c r="G705" s="10" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.2">
@@ -40972,7 +40999,7 @@
         <v>286</v>
       </c>
       <c r="C706" s="53" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D706" s="9">
         <v>10</v>
@@ -40984,7 +41011,7 @@
         <v>1</v>
       </c>
       <c r="G706" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="707" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -40995,19 +41022,19 @@
         <v>287</v>
       </c>
       <c r="C707" s="10" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D707" s="10" t="s">
         <v>1635</v>
       </c>
-      <c r="D707" s="10" t="s">
+      <c r="E707" s="8">
+        <v>2</v>
+      </c>
+      <c r="F707" s="8">
+        <v>1</v>
+      </c>
+      <c r="G707" s="10" t="s">
         <v>1637</v>
-      </c>
-      <c r="E707" s="8">
-        <v>2</v>
-      </c>
-      <c r="F707" s="8">
-        <v>1</v>
-      </c>
-      <c r="G707" s="10" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="708" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -41021,7 +41048,7 @@
         <v>1170</v>
       </c>
       <c r="D708" s="10" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="E708" s="8">
         <v>5</v>
@@ -41030,7 +41057,7 @@
         <v>2</v>
       </c>
       <c r="G708" s="10" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
@@ -41064,10 +41091,10 @@
         <v>288</v>
       </c>
       <c r="C710" s="10" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D710" s="10" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E710" s="8">
         <v>5</v>
@@ -41076,7 +41103,7 @@
         <v>1</v>
       </c>
       <c r="G710" s="10" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
@@ -41110,10 +41137,10 @@
         <v>288</v>
       </c>
       <c r="C712" s="10" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D712" s="10" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E712" s="8">
         <v>5</v>
@@ -41122,7 +41149,7 @@
         <v>2</v>
       </c>
       <c r="G712" s="10" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
@@ -41145,7 +41172,7 @@
         <v>1</v>
       </c>
       <c r="G713" s="10" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
@@ -41168,7 +41195,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
@@ -41179,10 +41206,10 @@
         <v>289</v>
       </c>
       <c r="C715" s="8" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D715" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E715" s="8">
         <v>5</v>
@@ -41191,7 +41218,7 @@
         <v>1</v>
       </c>
       <c r="G715" s="10" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
@@ -41202,10 +41229,10 @@
         <v>289</v>
       </c>
       <c r="C716" s="10" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D716" s="10" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E716" s="8">
         <v>5</v>
@@ -41214,7 +41241,7 @@
         <v>1</v>
       </c>
       <c r="G716" s="10" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -41225,10 +41252,10 @@
         <v>290</v>
       </c>
       <c r="C717" s="8" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D717" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E717" s="8">
         <v>5</v>
@@ -41237,7 +41264,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="10" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
@@ -41260,7 +41287,7 @@
         <v>1</v>
       </c>
       <c r="G718" s="8" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -41283,7 +41310,7 @@
         <v>1</v>
       </c>
       <c r="G719" s="8" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
@@ -41294,10 +41321,10 @@
         <v>290</v>
       </c>
       <c r="C720" s="10" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D720" s="10" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E720" s="8">
         <v>5</v>
@@ -41306,7 +41333,7 @@
         <v>1</v>
       </c>
       <c r="G720" s="10" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
@@ -41329,7 +41356,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
@@ -41352,7 +41379,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
@@ -41363,10 +41390,10 @@
         <v>291</v>
       </c>
       <c r="C723" s="8" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D723" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E723" s="8">
         <v>5</v>
@@ -41375,7 +41402,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="10" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
@@ -41386,10 +41413,10 @@
         <v>291</v>
       </c>
       <c r="C724" s="10" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D724" s="10" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E724" s="8">
         <v>5</v>
@@ -41398,7 +41425,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="725" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -41412,16 +41439,16 @@
         <v>1169</v>
       </c>
       <c r="D725" s="10" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E725" s="8">
+        <v>2</v>
+      </c>
+      <c r="F725" s="8">
+        <v>1</v>
+      </c>
+      <c r="G725" s="10" t="s">
         <v>1652</v>
-      </c>
-      <c r="E725" s="8">
-        <v>2</v>
-      </c>
-      <c r="F725" s="8">
-        <v>1</v>
-      </c>
-      <c r="G725" s="10" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
@@ -41435,7 +41462,7 @@
         <v>1066</v>
       </c>
       <c r="D726" s="10" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E726" s="8">
         <v>5</v>
@@ -41444,7 +41471,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="10" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
@@ -41467,7 +41494,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="8" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
@@ -41490,7 +41517,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="10" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
@@ -41501,10 +41528,10 @@
         <v>293</v>
       </c>
       <c r="C729" s="10" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D729" s="10" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E729" s="8">
         <v>5</v>
@@ -41513,7 +41540,7 @@
         <v>1</v>
       </c>
       <c r="G729" s="10" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
@@ -41527,7 +41554,7 @@
         <v>1066</v>
       </c>
       <c r="D730" s="19" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E730" s="77">
         <v>5</v>
@@ -41536,7 +41563,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="19" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.2">
@@ -41559,7 +41586,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="77" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
@@ -41582,7 +41609,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="77" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
@@ -41596,7 +41623,7 @@
         <v>1066</v>
       </c>
       <c r="D733" s="19" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E733" s="77">
         <v>5</v>
@@ -41605,7 +41632,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="19" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
@@ -41628,7 +41655,7 @@
         <v>1</v>
       </c>
       <c r="G734" s="19" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
@@ -41651,7 +41678,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -41665,7 +41692,7 @@
         <v>1066</v>
       </c>
       <c r="D736" s="19" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E736" s="77">
         <v>5</v>
@@ -41674,7 +41701,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
@@ -41697,7 +41724,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -41720,7 +41747,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="19" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
@@ -41734,7 +41761,7 @@
         <v>1066</v>
       </c>
       <c r="D739" s="19" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E739" s="77">
         <v>5</v>
@@ -41743,7 +41770,7 @@
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
@@ -41766,7 +41793,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="77" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="741" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41858,7 +41885,7 @@
         <v>1</v>
       </c>
       <c r="G744" s="10" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
@@ -41881,7 +41908,7 @@
         <v>1</v>
       </c>
       <c r="G745" s="10" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="746" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41904,7 +41931,7 @@
         <v>1</v>
       </c>
       <c r="G746" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
@@ -41915,7 +41942,7 @@
         <v>301</v>
       </c>
       <c r="C747" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D747" s="8">
         <v>4</v>
@@ -41927,7 +41954,7 @@
         <v>1</v>
       </c>
       <c r="G747" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.2">
@@ -41938,7 +41965,7 @@
         <v>301</v>
       </c>
       <c r="C748" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D748" s="8">
         <v>6</v>
@@ -41950,7 +41977,7 @@
         <v>1</v>
       </c>
       <c r="G748" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="749" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41973,7 +42000,7 @@
         <v>1</v>
       </c>
       <c r="G749" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="750" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -41996,7 +42023,7 @@
         <v>1</v>
       </c>
       <c r="G750" s="15" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="751" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42019,7 +42046,7 @@
         <v>1</v>
       </c>
       <c r="G751" s="15" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="752" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42042,7 +42069,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.2">
@@ -42056,7 +42083,7 @@
         <v>1066</v>
       </c>
       <c r="D753" s="10" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="E753" s="8">
         <v>2</v>
@@ -42122,7 +42149,7 @@
         <v>304</v>
       </c>
       <c r="C756" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D756" s="8">
         <v>4</v>
@@ -42134,7 +42161,7 @@
         <v>1</v>
       </c>
       <c r="G756" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.2">
@@ -42145,7 +42172,7 @@
         <v>304</v>
       </c>
       <c r="C757" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D757" s="8">
         <v>10</v>
@@ -42157,7 +42184,7 @@
         <v>1</v>
       </c>
       <c r="G757" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="758" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42180,7 +42207,7 @@
         <v>1</v>
       </c>
       <c r="G758" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.2">
@@ -42217,7 +42244,7 @@
         <v>1046</v>
       </c>
       <c r="D760" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E760" s="8">
         <v>2</v>
@@ -42226,7 +42253,7 @@
         <v>1</v>
       </c>
       <c r="G760" s="10" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
@@ -42263,7 +42290,7 @@
         <v>1046</v>
       </c>
       <c r="D762" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E762" s="8">
         <v>2</v>
@@ -42272,7 +42299,7 @@
         <v>2</v>
       </c>
       <c r="G762" s="10" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
@@ -42309,7 +42336,7 @@
         <v>1046</v>
       </c>
       <c r="D764" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E764" s="8">
         <v>2</v>
@@ -42318,7 +42345,7 @@
         <v>3</v>
       </c>
       <c r="G764" s="10" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
@@ -42341,7 +42368,7 @@
         <v>1</v>
       </c>
       <c r="G765" s="10" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.2">
@@ -42364,7 +42391,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -42378,7 +42405,7 @@
         <v>1046</v>
       </c>
       <c r="D767" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E767" s="8">
         <v>2</v>
@@ -42387,7 +42414,7 @@
         <v>1</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="768" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42410,7 +42437,7 @@
         <v>1</v>
       </c>
       <c r="G768" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -42421,7 +42448,7 @@
         <v>307</v>
       </c>
       <c r="C769" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D769" s="8">
         <v>4</v>
@@ -42433,7 +42460,7 @@
         <v>1</v>
       </c>
       <c r="G769" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
@@ -42444,7 +42471,7 @@
         <v>307</v>
       </c>
       <c r="C770" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D770" s="8">
         <v>6</v>
@@ -42456,7 +42483,7 @@
         <v>1</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -42470,7 +42497,7 @@
         <v>1046</v>
       </c>
       <c r="D771" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E771" s="8">
         <v>2</v>
@@ -42479,7 +42506,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="10" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="772" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42502,7 +42529,7 @@
         <v>1</v>
       </c>
       <c r="G772" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
@@ -42525,7 +42552,7 @@
         <v>1</v>
       </c>
       <c r="G773" s="10" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.2">
@@ -42548,7 +42575,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="775" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42571,7 +42598,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
@@ -42585,7 +42612,7 @@
         <v>1046</v>
       </c>
       <c r="D776" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E776" s="8">
         <v>2</v>
@@ -42594,7 +42621,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
@@ -42608,7 +42635,7 @@
         <v>1046</v>
       </c>
       <c r="D777" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E777" s="8">
         <v>2</v>
@@ -42617,7 +42644,7 @@
         <v>1</v>
       </c>
       <c r="G777" s="10" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
@@ -42631,7 +42658,7 @@
         <v>1046</v>
       </c>
       <c r="D778" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E778" s="8">
         <v>5</v>
@@ -42640,7 +42667,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
@@ -42654,7 +42681,7 @@
         <v>1066</v>
       </c>
       <c r="D779" s="10" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="E779" s="8">
         <v>2</v>
@@ -42677,7 +42704,7 @@
         <v>1046</v>
       </c>
       <c r="D780" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E780" s="8">
         <v>5</v>
@@ -42686,7 +42713,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
@@ -42723,7 +42750,7 @@
         <v>1046</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E782" s="8">
         <v>5</v>
@@ -42732,7 +42759,7 @@
         <v>2</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -42769,7 +42796,7 @@
         <v>1046</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E784" s="8">
         <v>5</v>
@@ -42778,7 +42805,7 @@
         <v>3</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -42801,7 +42828,7 @@
         <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
@@ -42824,7 +42851,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -42838,7 +42865,7 @@
         <v>1046</v>
       </c>
       <c r="D787" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E787" s="8">
         <v>5</v>
@@ -42847,7 +42874,7 @@
         <v>1</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="788" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42870,7 +42897,7 @@
         <v>1</v>
       </c>
       <c r="G788" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -42893,7 +42920,7 @@
         <v>1</v>
       </c>
       <c r="G789" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
@@ -42916,7 +42943,7 @@
         <v>1</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -42930,7 +42957,7 @@
         <v>1046</v>
       </c>
       <c r="D791" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E791" s="8">
         <v>5</v>
@@ -42939,7 +42966,7 @@
         <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="792" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -42962,7 +42989,7 @@
         <v>1</v>
       </c>
       <c r="G792" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
@@ -42985,7 +43012,7 @@
         <v>1</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.2">
@@ -43008,7 +43035,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="795" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43031,7 +43058,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="15" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
@@ -43045,7 +43072,7 @@
         <v>1046</v>
       </c>
       <c r="D796" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E796" s="8">
         <v>5</v>
@@ -43054,7 +43081,7 @@
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
@@ -43068,7 +43095,7 @@
         <v>1046</v>
       </c>
       <c r="D797" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E797" s="8">
         <v>5</v>
@@ -43077,7 +43104,7 @@
         <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
@@ -43091,7 +43118,7 @@
         <v>1046</v>
       </c>
       <c r="D798" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E798" s="9">
         <v>2</v>
@@ -43100,7 +43127,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="53" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
@@ -43114,7 +43141,7 @@
         <v>1046</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -43123,7 +43150,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
@@ -43137,7 +43164,7 @@
         <v>1046</v>
       </c>
       <c r="D800" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E800" s="9">
         <v>2</v>
@@ -43146,7 +43173,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="53" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
@@ -43160,7 +43187,7 @@
         <v>1046</v>
       </c>
       <c r="D801" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E801" s="8">
         <v>5</v>
@@ -43169,7 +43196,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="10" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
@@ -43183,7 +43210,7 @@
         <v>1046</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E802" s="9">
         <v>2</v>
@@ -43192,7 +43219,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="53" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -43206,7 +43233,7 @@
         <v>1046</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E803" s="9">
         <v>5</v>
@@ -43215,7 +43242,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="9" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -43252,7 +43279,7 @@
         <v>1046</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -43261,7 +43288,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="9" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -43284,7 +43311,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="10" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -43307,7 +43334,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -43330,7 +43357,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -43344,7 +43371,7 @@
         <v>1046</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E809" s="9">
         <v>5</v>
@@ -43353,7 +43380,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="9" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="810" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -43364,19 +43391,19 @@
         <v>324</v>
       </c>
       <c r="C810" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D810" s="10" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E810" s="8">
+        <v>2</v>
+      </c>
+      <c r="F810" s="8">
+        <v>1</v>
+      </c>
+      <c r="G810" s="10" t="s">
         <v>1755</v>
-      </c>
-      <c r="D810" s="10" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E810" s="8">
-        <v>2</v>
-      </c>
-      <c r="F810" s="8">
-        <v>1</v>
-      </c>
-      <c r="G810" s="10" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -43390,7 +43417,7 @@
         <v>1046</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E811" s="8">
         <v>5</v>
@@ -43399,7 +43426,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="10" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -43413,7 +43440,7 @@
         <v>866</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="E812" s="8">
         <v>2</v>
@@ -43436,7 +43463,7 @@
         <v>1046</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E813" s="8">
         <v>5</v>
@@ -43445,7 +43472,7 @@
         <v>2</v>
       </c>
       <c r="G813" s="10" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -43482,7 +43509,7 @@
         <v>1046</v>
       </c>
       <c r="D815" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E815" s="8">
         <v>5</v>
@@ -43491,7 +43518,7 @@
         <v>3</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -43505,7 +43532,7 @@
         <v>1046</v>
       </c>
       <c r="D816" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E816" s="9">
         <v>5</v>
@@ -43514,7 +43541,7 @@
         <v>1</v>
       </c>
       <c r="G816" s="9" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
@@ -43528,7 +43555,7 @@
         <v>898</v>
       </c>
       <c r="D817" s="9" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E817" s="9">
         <v>2</v>
@@ -43537,7 +43564,7 @@
         <v>1</v>
       </c>
       <c r="G817" s="9" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
@@ -43551,7 +43578,7 @@
         <v>898</v>
       </c>
       <c r="D818" s="53" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="E818" s="9">
         <v>5</v>
@@ -43560,7 +43587,7 @@
         <v>1</v>
       </c>
       <c r="G818" s="53" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
@@ -43574,7 +43601,7 @@
         <v>898</v>
       </c>
       <c r="D819" s="9" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="E819" s="9">
         <v>5</v>
@@ -43583,7 +43610,7 @@
         <v>1</v>
       </c>
       <c r="G819" s="9" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -43597,7 +43624,7 @@
         <v>898</v>
       </c>
       <c r="D820" s="9" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="E820" s="9">
         <v>5</v>
@@ -43606,7 +43633,7 @@
         <v>1</v>
       </c>
       <c r="G820" s="9" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -43629,7 +43656,7 @@
         <v>1</v>
       </c>
       <c r="G821" s="53" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -43640,7 +43667,7 @@
         <v>330</v>
       </c>
       <c r="C822" s="9" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="D822" s="9">
         <v>3</v>
@@ -43652,7 +43679,7 @@
         <v>1</v>
       </c>
       <c r="G822" s="53" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
@@ -43675,7 +43702,7 @@
         <v>1</v>
       </c>
       <c r="G823" s="53" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -43689,16 +43716,16 @@
         <v>866</v>
       </c>
       <c r="D824" s="10" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E824" s="9">
+        <v>2</v>
+      </c>
+      <c r="F824" s="9">
+        <v>2</v>
+      </c>
+      <c r="G824" s="53" t="s">
         <v>1828</v>
-      </c>
-      <c r="E824" s="9">
-        <v>2</v>
-      </c>
-      <c r="F824" s="9">
-        <v>2</v>
-      </c>
-      <c r="G824" s="53" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -43721,7 +43748,7 @@
         <v>2</v>
       </c>
       <c r="G825" s="9" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
@@ -43744,7 +43771,7 @@
         <v>3</v>
       </c>
       <c r="G826" s="53" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -43767,7 +43794,7 @@
         <v>3</v>
       </c>
       <c r="G827" s="9" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -43790,7 +43817,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="53" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -43813,7 +43840,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="53" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -43824,7 +43851,7 @@
         <v>331</v>
       </c>
       <c r="C830" s="9" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D830" s="9" t="s">
         <v>867</v>
@@ -43836,7 +43863,30 @@
         <v>1</v>
       </c>
       <c r="G830" s="53" t="s">
-        <v>1823</v>
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A831" s="8">
+        <v>830</v>
+      </c>
+      <c r="B831" s="9">
+        <v>332</v>
+      </c>
+      <c r="C831" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D831" s="9">
+        <v>0</v>
+      </c>
+      <c r="E831" s="9">
+        <v>2</v>
+      </c>
+      <c r="F831" s="9">
+        <v>1</v>
+      </c>
+      <c r="G831" s="53" t="s">
+        <v>1839</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.2">
@@ -43905,7 +43955,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>898</v>
@@ -43974,13 +44024,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -43997,13 +44047,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -44012,7 +44062,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -44020,13 +44070,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -44035,7 +44085,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -44043,13 +44093,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>898</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -44058,7 +44108,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -44151,12 +44201,12 @@
         <v>866</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B8" t="s">
         <v>1036</v>

--- a/config_10.27/permission_server_config.xlsx
+++ b/config_10.27/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1846">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8237,10 +8237,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","cjj",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8578,6 +8574,34 @@
   </si>
   <si>
     <t>v0及以下</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPl渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPS渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9332,8 +9356,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
@@ -11678,7 +11702,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -13321,10 +13345,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="27" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B362" s="34" t="s">
         <v>1837</v>
-      </c>
-      <c r="B362" s="34" t="s">
-        <v>1838</v>
       </c>
       <c r="C362" s="3">
         <v>332</v>
@@ -13335,7 +13359,7 @@
         <v>1476</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C363" s="3">
         <v>242</v>
@@ -13357,7 +13381,7 @@
         <v>1472</v>
       </c>
       <c r="B365" s="27" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C365" s="3">
         <v>244</v>
@@ -13453,7 +13477,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="27" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B383" s="27" t="s">
         <v>1765</v>
@@ -13464,7 +13488,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="27" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B385" s="27" t="s">
         <v>1766</v>
@@ -13486,10 +13510,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="27" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B389" s="27" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C389" s="3">
         <v>319</v>
@@ -13497,10 +13521,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="34" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C391" s="8">
         <v>127</v>
@@ -13508,10 +13532,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="34" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C392" s="8">
         <v>128</v>
@@ -13519,10 +13543,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C393" s="8">
         <v>129</v>
@@ -13530,10 +13554,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C394" s="8">
         <v>130</v>
@@ -13541,10 +13565,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C395" s="8">
         <v>131</v>
@@ -13552,10 +13576,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C396" s="8">
         <v>132</v>
@@ -13563,10 +13587,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C397" s="8">
         <v>133</v>
@@ -13574,10 +13598,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C398" s="8">
         <v>134</v>
@@ -13585,10 +13609,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C399" s="8">
         <v>135</v>
@@ -13611,7 +13635,7 @@
   <dimension ref="A1:O327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C310" sqref="C310"/>
@@ -13952,7 +13976,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1181</v>
@@ -19664,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -23800,7 +23824,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1693</v>
@@ -24506,7 +24530,7 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D322" s="30" t="s">
         <v>1776</v>
@@ -24538,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D323" s="30" t="s">
         <v>1776</v>
@@ -24559,7 +24583,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -24570,10 +24594,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -24602,10 +24626,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -24634,10 +24658,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -24655,7 +24679,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -24666,10 +24690,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -24687,7 +24711,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
   </sheetData>
@@ -24701,13 +24725,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I835"/>
+  <dimension ref="A1:I838"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C809" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C797" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G831" sqref="G831"/>
+      <selection pane="bottomRight" activeCell="A802" sqref="A802:A834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34785,7 +34809,7 @@
         <v>898</v>
       </c>
       <c r="D436" s="53" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E436" s="9">
         <v>5</v>
@@ -34808,7 +34832,7 @@
         <v>898</v>
       </c>
       <c r="D437" s="53" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E437" s="9">
         <v>2</v>
@@ -43273,13 +43297,13 @@
         <v>804</v>
       </c>
       <c r="B805" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>1046</v>
+        <v>1081</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1696</v>
+        <v>1839</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -43287,8 +43311,8 @@
       <c r="F805" s="8">
         <v>1</v>
       </c>
-      <c r="G805" s="9" t="s">
-        <v>1662</v>
+      <c r="G805" s="53" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -43299,19 +43323,19 @@
         <v>322</v>
       </c>
       <c r="C806" s="10" t="s">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E806" s="8">
+        <v>1696</v>
+      </c>
+      <c r="E806" s="9">
         <v>5</v>
       </c>
       <c r="F806" s="8">
         <v>1</v>
       </c>
-      <c r="G806" s="10" t="s">
-        <v>1641</v>
+      <c r="G806" s="9" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -43322,19 +43346,19 @@
         <v>322</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D807" s="8">
-        <v>4</v>
+        <v>1066</v>
+      </c>
+      <c r="D807" s="10" t="s">
+        <v>1242</v>
       </c>
       <c r="E807" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F807" s="8">
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>1496</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -43344,20 +43368,20 @@
       <c r="B808" s="9">
         <v>322</v>
       </c>
-      <c r="C808" s="53" t="s">
+      <c r="C808" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="D808" s="9">
-        <v>10</v>
-      </c>
-      <c r="E808" s="9">
+      <c r="D808" s="8">
         <v>4</v>
       </c>
-      <c r="F808" s="9">
+      <c r="E808" s="8">
+        <v>3</v>
+      </c>
+      <c r="F808" s="8">
         <v>1</v>
       </c>
       <c r="G808" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -43365,48 +43389,48 @@
         <v>808</v>
       </c>
       <c r="B809" s="9">
-        <v>323</v>
-      </c>
-      <c r="C809" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D809" s="10" t="s">
-        <v>1696</v>
+        <v>322</v>
+      </c>
+      <c r="C809" s="53" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D809" s="9">
+        <v>10</v>
       </c>
       <c r="E809" s="9">
-        <v>5</v>
-      </c>
-      <c r="F809" s="8">
-        <v>1</v>
-      </c>
-      <c r="G809" s="9" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="810" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F809" s="9">
+        <v>1</v>
+      </c>
+      <c r="G809" s="10" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810" s="8">
         <v>809</v>
       </c>
-      <c r="B810" s="8">
-        <v>324</v>
+      <c r="B810" s="9">
+        <v>323</v>
       </c>
       <c r="C810" s="10" t="s">
-        <v>1753</v>
+        <v>1046</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E810" s="8">
-        <v>2</v>
+        <v>1696</v>
+      </c>
+      <c r="E810" s="9">
+        <v>5</v>
       </c>
       <c r="F810" s="8">
         <v>1</v>
       </c>
-      <c r="G810" s="10" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G810" s="9" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="8">
         <v>810</v>
       </c>
@@ -43414,19 +43438,19 @@
         <v>324</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>1046</v>
+        <v>1753</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1696</v>
+        <v>1754</v>
       </c>
       <c r="E811" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F811" s="8">
         <v>1</v>
       </c>
       <c r="G811" s="10" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -43437,19 +43461,19 @@
         <v>324</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>866</v>
+        <v>1046</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1826</v>
+        <v>1696</v>
       </c>
       <c r="E812" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F812" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G812" s="10" t="s">
-        <v>924</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
@@ -43460,19 +43484,19 @@
         <v>324</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>1046</v>
+        <v>866</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1696</v>
+        <v>1825</v>
       </c>
       <c r="E813" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F813" s="8">
         <v>2</v>
       </c>
       <c r="G813" s="10" t="s">
-        <v>1760</v>
+        <v>924</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -43483,19 +43507,19 @@
         <v>324</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>866</v>
+        <v>1046</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>875</v>
+        <v>1696</v>
       </c>
       <c r="E814" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F814" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G814" s="10" t="s">
-        <v>920</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -43506,27 +43530,27 @@
         <v>324</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>1046</v>
+        <v>866</v>
       </c>
       <c r="D815" s="10" t="s">
-        <v>1696</v>
+        <v>875</v>
       </c>
       <c r="E815" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F815" s="8">
         <v>3</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>1760</v>
+        <v>920</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816" s="8">
         <v>815</v>
       </c>
-      <c r="B816" s="9">
-        <v>325</v>
+      <c r="B816" s="8">
+        <v>324</v>
       </c>
       <c r="C816" s="10" t="s">
         <v>1046</v>
@@ -43534,14 +43558,14 @@
       <c r="D816" s="10" t="s">
         <v>1696</v>
       </c>
-      <c r="E816" s="9">
+      <c r="E816" s="8">
         <v>5</v>
       </c>
       <c r="F816" s="8">
-        <v>1</v>
-      </c>
-      <c r="G816" s="9" t="s">
-        <v>1662</v>
+        <v>3</v>
+      </c>
+      <c r="G816" s="10" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
@@ -43549,22 +43573,22 @@
         <v>816</v>
       </c>
       <c r="B817" s="9">
-        <v>326</v>
-      </c>
-      <c r="C817" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="D817" s="9" t="s">
-        <v>1780</v>
+        <v>325</v>
+      </c>
+      <c r="C817" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D817" s="10" t="s">
+        <v>1696</v>
       </c>
       <c r="E817" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F817" s="8">
         <v>1</v>
       </c>
       <c r="G817" s="9" t="s">
-        <v>1761</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
@@ -43572,91 +43596,91 @@
         <v>817</v>
       </c>
       <c r="B818" s="9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C818" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="D818" s="53" t="s">
-        <v>1781</v>
+      <c r="D818" s="9" t="s">
+        <v>1780</v>
       </c>
       <c r="E818" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F818" s="8">
         <v>1</v>
       </c>
-      <c r="G818" s="53" t="s">
-        <v>1767</v>
+      <c r="G818" s="9" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" s="8">
         <v>818</v>
       </c>
-      <c r="B819" s="9">
-        <v>328</v>
-      </c>
-      <c r="C819" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="D819" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E819" s="9">
-        <v>5</v>
-      </c>
-      <c r="F819" s="9">
-        <v>1</v>
-      </c>
-      <c r="G819" s="9" t="s">
-        <v>1772</v>
+      <c r="B819" s="8">
+        <v>327</v>
+      </c>
+      <c r="C819" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D819" s="10" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E819" s="8">
+        <v>2</v>
+      </c>
+      <c r="F819" s="8">
+        <v>1</v>
+      </c>
+      <c r="G819" s="10" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820" s="8">
         <v>819</v>
       </c>
-      <c r="B820" s="9">
-        <v>329</v>
-      </c>
-      <c r="C820" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="D820" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E820" s="9">
-        <v>5</v>
-      </c>
-      <c r="F820" s="9">
-        <v>1</v>
-      </c>
-      <c r="G820" s="9" t="s">
-        <v>1772</v>
+      <c r="B820" s="8">
+        <v>327</v>
+      </c>
+      <c r="C820" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D820" s="10" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E820" s="8">
+        <v>2</v>
+      </c>
+      <c r="F820" s="8">
+        <v>1</v>
+      </c>
+      <c r="G820" s="10" t="s">
+        <v>1844</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821" s="8">
         <v>820</v>
       </c>
-      <c r="B821" s="9">
-        <v>330</v>
-      </c>
-      <c r="C821" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="D821" s="9">
-        <v>1</v>
-      </c>
-      <c r="E821" s="9">
-        <v>3</v>
-      </c>
-      <c r="F821" s="9">
-        <v>1</v>
-      </c>
-      <c r="G821" s="53" t="s">
-        <v>1817</v>
+      <c r="B821" s="8">
+        <v>327</v>
+      </c>
+      <c r="C821" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D821" s="10" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E821" s="8">
+        <v>2</v>
+      </c>
+      <c r="F821" s="8">
+        <v>1</v>
+      </c>
+      <c r="G821" s="10" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -43664,22 +43688,22 @@
         <v>821</v>
       </c>
       <c r="B822" s="9">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C822" s="9" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D822" s="9">
-        <v>3</v>
+        <v>898</v>
+      </c>
+      <c r="D822" s="9" t="s">
+        <v>1778</v>
       </c>
       <c r="E822" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F822" s="9">
         <v>1</v>
       </c>
-      <c r="G822" s="53" t="s">
-        <v>1818</v>
+      <c r="G822" s="9" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
@@ -43687,13 +43711,13 @@
         <v>822</v>
       </c>
       <c r="B823" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C823" s="9" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
       <c r="D823" s="9" t="s">
-        <v>867</v>
+        <v>1778</v>
       </c>
       <c r="E823" s="9">
         <v>5</v>
@@ -43701,8 +43725,8 @@
       <c r="F823" s="9">
         <v>1</v>
       </c>
-      <c r="G823" s="53" t="s">
-        <v>1830</v>
+      <c r="G823" s="9" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -43712,20 +43736,20 @@
       <c r="B824" s="9">
         <v>330</v>
       </c>
-      <c r="C824" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="D824" s="10" t="s">
-        <v>1826</v>
+      <c r="C824" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D824" s="9">
+        <v>1</v>
       </c>
       <c r="E824" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F824" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G824" s="53" t="s">
-        <v>1828</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -43736,19 +43760,19 @@
         <v>330</v>
       </c>
       <c r="C825" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="D825" s="9" t="s">
-        <v>867</v>
+        <v>1814</v>
+      </c>
+      <c r="D825" s="9">
+        <v>3</v>
       </c>
       <c r="E825" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F825" s="9">
-        <v>2</v>
-      </c>
-      <c r="G825" s="9" t="s">
-        <v>1829</v>
+        <v>1</v>
+      </c>
+      <c r="G825" s="53" t="s">
+        <v>1817</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
@@ -43762,16 +43786,16 @@
         <v>866</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E826" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F826" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G826" s="53" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -43781,20 +43805,20 @@
       <c r="B827" s="9">
         <v>330</v>
       </c>
-      <c r="C827" s="9" t="s">
+      <c r="C827" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="D827" s="9" t="s">
-        <v>867</v>
+      <c r="D827" s="10" t="s">
+        <v>1825</v>
       </c>
       <c r="E827" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F827" s="9">
-        <v>3</v>
-      </c>
-      <c r="G827" s="9" t="s">
-        <v>1829</v>
+        <v>2</v>
+      </c>
+      <c r="G827" s="53" t="s">
+        <v>1827</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -43802,22 +43826,22 @@
         <v>827</v>
       </c>
       <c r="B828" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C828" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="D828" s="9">
-        <v>4</v>
+        <v>866</v>
+      </c>
+      <c r="D828" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="E828" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F828" s="9">
-        <v>1</v>
-      </c>
-      <c r="G828" s="53" t="s">
-        <v>1820</v>
+        <v>2</v>
+      </c>
+      <c r="G828" s="9" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -43825,22 +43849,22 @@
         <v>828</v>
       </c>
       <c r="B829" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C829" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="D829" s="9">
-        <v>10</v>
+        <v>866</v>
+      </c>
+      <c r="D829" s="9" t="s">
+        <v>875</v>
       </c>
       <c r="E829" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F829" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G829" s="53" t="s">
-        <v>1819</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -43848,10 +43872,10 @@
         <v>829</v>
       </c>
       <c r="B830" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C830" s="9" t="s">
-        <v>1816</v>
+        <v>866</v>
       </c>
       <c r="D830" s="9" t="s">
         <v>867</v>
@@ -43860,10 +43884,10 @@
         <v>5</v>
       </c>
       <c r="F830" s="9">
-        <v>1</v>
-      </c>
-      <c r="G830" s="53" t="s">
-        <v>1821</v>
+        <v>3</v>
+      </c>
+      <c r="G830" s="9" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -43871,35 +43895,104 @@
         <v>830</v>
       </c>
       <c r="B831" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C831" s="9" t="s">
         <v>879</v>
       </c>
       <c r="D831" s="9">
+        <v>4</v>
+      </c>
+      <c r="E831" s="9">
+        <v>3</v>
+      </c>
+      <c r="F831" s="9">
+        <v>1</v>
+      </c>
+      <c r="G831" s="53" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A832" s="8">
+        <v>831</v>
+      </c>
+      <c r="B832" s="9">
+        <v>331</v>
+      </c>
+      <c r="C832" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D832" s="9">
+        <v>10</v>
+      </c>
+      <c r="E832" s="9">
+        <v>4</v>
+      </c>
+      <c r="F832" s="9">
+        <v>1</v>
+      </c>
+      <c r="G832" s="53" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A833" s="8">
+        <v>832</v>
+      </c>
+      <c r="B833" s="9">
+        <v>331</v>
+      </c>
+      <c r="C833" s="9" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D833" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="E833" s="9">
+        <v>5</v>
+      </c>
+      <c r="F833" s="9">
+        <v>1</v>
+      </c>
+      <c r="G833" s="53" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A834" s="8">
+        <v>833</v>
+      </c>
+      <c r="B834" s="9">
+        <v>332</v>
+      </c>
+      <c r="C834" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D834" s="9">
         <v>0</v>
       </c>
-      <c r="E831" s="9">
-        <v>2</v>
-      </c>
-      <c r="F831" s="9">
-        <v>1</v>
-      </c>
-      <c r="G831" s="53" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A833" s="8"/>
-      <c r="G833" s="53"/>
-    </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A834" s="8"/>
-      <c r="G834" s="53"/>
-    </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A835" s="8"/>
-      <c r="G835" s="53"/>
+      <c r="E834" s="9">
+        <v>2</v>
+      </c>
+      <c r="F834" s="9">
+        <v>1</v>
+      </c>
+      <c r="G834" s="53" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A836" s="8"/>
+      <c r="G836" s="53"/>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A837" s="8"/>
+      <c r="G837" s="53"/>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A838" s="8"/>
+      <c r="G838" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -44053,7 +44146,7 @@
         <v>898</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -44201,7 +44294,7 @@
         <v>866</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/config_10.27/permission_server_config.xlsx
+++ b/config_10.27/permission_server_config.xlsx
@@ -24728,10 +24728,10 @@
   <dimension ref="A1:I838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C797" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C803" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A802" sqref="A802:A834"/>
+      <selection pane="bottomRight" activeCell="E821" sqref="E821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43654,7 +43654,7 @@
         <v>2</v>
       </c>
       <c r="F820" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G820" s="10" t="s">
         <v>1844</v>
@@ -43677,7 +43677,7 @@
         <v>2</v>
       </c>
       <c r="F821" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G821" s="10" t="s">
         <v>1637</v>

--- a/config_10.27/permission_server_config.xlsx
+++ b/config_10.27/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="1848">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8585,10 +8585,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>是CPl渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8602,6 +8598,18 @@
   </si>
   <si>
     <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_special_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼特殊CPL（不包含冲金鸡）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -24731,7 +24739,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C803" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E821" sqref="E821"/>
+      <selection pane="bottomRight" activeCell="D819" sqref="D819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43625,16 +43633,16 @@
         <v>1046</v>
       </c>
       <c r="D819" s="10" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E819" s="8">
+        <v>2</v>
+      </c>
+      <c r="F819" s="8">
+        <v>1</v>
+      </c>
+      <c r="G819" s="10" t="s">
         <v>1841</v>
-      </c>
-      <c r="E819" s="8">
-        <v>2</v>
-      </c>
-      <c r="F819" s="8">
-        <v>1</v>
-      </c>
-      <c r="G819" s="10" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -43648,16 +43656,16 @@
         <v>1046</v>
       </c>
       <c r="D820" s="10" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E820" s="8">
+        <v>2</v>
+      </c>
+      <c r="F820" s="8">
+        <v>2</v>
+      </c>
+      <c r="G820" s="10" t="s">
         <v>1843</v>
-      </c>
-      <c r="E820" s="8">
-        <v>2</v>
-      </c>
-      <c r="F820" s="8">
-        <v>2</v>
-      </c>
-      <c r="G820" s="10" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -43671,7 +43679,7 @@
         <v>1046</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E821" s="8">
         <v>2</v>
@@ -44004,10 +44012,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44202,6 +44210,29 @@
       </c>
       <c r="G8" s="5" t="s">
         <v>1651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="93">
+        <v>8</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1847</v>
       </c>
     </row>
   </sheetData>

--- a/config_10.27/permission_server_config.xlsx
+++ b/config_10.27/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="1848">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -24733,13 +24733,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I838"/>
+  <dimension ref="A1:I839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C803" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C794" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D819" sqref="D819"/>
+      <selection pane="bottomRight" activeCell="A801" sqref="A801:A835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43236,22 +43236,22 @@
         <v>801</v>
       </c>
       <c r="B802" s="9">
-        <v>320</v>
-      </c>
-      <c r="C802" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D802" s="10" t="s">
-        <v>1696</v>
+        <v>319</v>
+      </c>
+      <c r="C802" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D802" s="9" t="s">
+        <v>1780</v>
       </c>
       <c r="E802" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F802" s="8">
         <v>1</v>
       </c>
-      <c r="G802" s="53" t="s">
-        <v>1722</v>
+      <c r="G802" s="9" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -43259,7 +43259,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C803" s="10" t="s">
         <v>1046</v>
@@ -43268,13 +43268,13 @@
         <v>1696</v>
       </c>
       <c r="E803" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F803" s="8">
         <v>1</v>
       </c>
-      <c r="G803" s="9" t="s">
-        <v>1662</v>
+      <c r="G803" s="53" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -43285,19 +43285,19 @@
         <v>321</v>
       </c>
       <c r="C804" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="D804" s="8">
-        <v>0</v>
-      </c>
-      <c r="E804" s="8">
-        <v>2</v>
+        <v>1046</v>
+      </c>
+      <c r="D804" s="10" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E804" s="9">
+        <v>5</v>
       </c>
       <c r="F804" s="8">
         <v>1</v>
       </c>
-      <c r="G804" s="10" t="s">
-        <v>884</v>
+      <c r="G804" s="9" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -43308,19 +43308,19 @@
         <v>321</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D805" s="10" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E805" s="9">
-        <v>5</v>
+        <v>879</v>
+      </c>
+      <c r="D805" s="8">
+        <v>0</v>
+      </c>
+      <c r="E805" s="8">
+        <v>2</v>
       </c>
       <c r="F805" s="8">
         <v>1</v>
       </c>
-      <c r="G805" s="53" t="s">
-        <v>1840</v>
+      <c r="G805" s="10" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -43328,13 +43328,13 @@
         <v>805</v>
       </c>
       <c r="B806" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C806" s="10" t="s">
-        <v>1046</v>
+        <v>1081</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1696</v>
+        <v>1839</v>
       </c>
       <c r="E806" s="9">
         <v>5</v>
@@ -43342,8 +43342,8 @@
       <c r="F806" s="8">
         <v>1</v>
       </c>
-      <c r="G806" s="9" t="s">
-        <v>1662</v>
+      <c r="G806" s="53" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -43354,19 +43354,19 @@
         <v>322</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E807" s="8">
+        <v>1696</v>
+      </c>
+      <c r="E807" s="9">
         <v>5</v>
       </c>
       <c r="F807" s="8">
         <v>1</v>
       </c>
-      <c r="G807" s="10" t="s">
-        <v>1641</v>
+      <c r="G807" s="9" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -43377,19 +43377,19 @@
         <v>322</v>
       </c>
       <c r="C808" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D808" s="8">
-        <v>4</v>
+        <v>1066</v>
+      </c>
+      <c r="D808" s="10" t="s">
+        <v>1242</v>
       </c>
       <c r="E808" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F808" s="8">
         <v>1</v>
       </c>
       <c r="G808" s="10" t="s">
-        <v>1496</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -43399,20 +43399,20 @@
       <c r="B809" s="9">
         <v>322</v>
       </c>
-      <c r="C809" s="53" t="s">
+      <c r="C809" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="D809" s="9">
-        <v>10</v>
-      </c>
-      <c r="E809" s="9">
+      <c r="D809" s="8">
         <v>4</v>
       </c>
-      <c r="F809" s="9">
+      <c r="E809" s="8">
+        <v>3</v>
+      </c>
+      <c r="F809" s="8">
         <v>1</v>
       </c>
       <c r="G809" s="10" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -43420,48 +43420,48 @@
         <v>809</v>
       </c>
       <c r="B810" s="9">
-        <v>323</v>
-      </c>
-      <c r="C810" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D810" s="10" t="s">
-        <v>1696</v>
+        <v>322</v>
+      </c>
+      <c r="C810" s="53" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D810" s="9">
+        <v>10</v>
       </c>
       <c r="E810" s="9">
-        <v>5</v>
-      </c>
-      <c r="F810" s="8">
-        <v>1</v>
-      </c>
-      <c r="G810" s="9" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="811" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F810" s="9">
+        <v>1</v>
+      </c>
+      <c r="G810" s="10" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811" s="8">
         <v>810</v>
       </c>
-      <c r="B811" s="8">
-        <v>324</v>
+      <c r="B811" s="9">
+        <v>323</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>1753</v>
+        <v>1046</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E811" s="8">
-        <v>2</v>
+        <v>1696</v>
+      </c>
+      <c r="E811" s="9">
+        <v>5</v>
       </c>
       <c r="F811" s="8">
         <v>1</v>
       </c>
-      <c r="G811" s="10" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G811" s="9" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="8">
         <v>811</v>
       </c>
@@ -43469,19 +43469,19 @@
         <v>324</v>
       </c>
       <c r="C812" s="10" t="s">
-        <v>1046</v>
+        <v>1753</v>
       </c>
       <c r="D812" s="10" t="s">
-        <v>1696</v>
+        <v>1754</v>
       </c>
       <c r="E812" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F812" s="8">
         <v>1</v>
       </c>
       <c r="G812" s="10" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
@@ -43492,19 +43492,19 @@
         <v>324</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>866</v>
+        <v>1046</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1825</v>
+        <v>1696</v>
       </c>
       <c r="E813" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F813" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G813" s="10" t="s">
-        <v>924</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -43515,19 +43515,19 @@
         <v>324</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>1046</v>
+        <v>866</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>1696</v>
+        <v>1825</v>
       </c>
       <c r="E814" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F814" s="8">
         <v>2</v>
       </c>
       <c r="G814" s="10" t="s">
-        <v>1760</v>
+        <v>924</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -43538,19 +43538,19 @@
         <v>324</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>866</v>
+        <v>1046</v>
       </c>
       <c r="D815" s="10" t="s">
-        <v>875</v>
+        <v>1696</v>
       </c>
       <c r="E815" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F815" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>920</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
@@ -43561,27 +43561,27 @@
         <v>324</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>1046</v>
+        <v>866</v>
       </c>
       <c r="D816" s="10" t="s">
-        <v>1696</v>
+        <v>875</v>
       </c>
       <c r="E816" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F816" s="8">
         <v>3</v>
       </c>
       <c r="G816" s="10" t="s">
-        <v>1760</v>
+        <v>920</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" s="8">
         <v>816</v>
       </c>
-      <c r="B817" s="9">
-        <v>325</v>
+      <c r="B817" s="8">
+        <v>324</v>
       </c>
       <c r="C817" s="10" t="s">
         <v>1046</v>
@@ -43589,14 +43589,14 @@
       <c r="D817" s="10" t="s">
         <v>1696</v>
       </c>
-      <c r="E817" s="9">
+      <c r="E817" s="8">
         <v>5</v>
       </c>
       <c r="F817" s="8">
-        <v>1</v>
-      </c>
-      <c r="G817" s="9" t="s">
-        <v>1662</v>
+        <v>3</v>
+      </c>
+      <c r="G817" s="10" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
@@ -43604,45 +43604,45 @@
         <v>817</v>
       </c>
       <c r="B818" s="9">
-        <v>326</v>
-      </c>
-      <c r="C818" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="D818" s="9" t="s">
-        <v>1780</v>
+        <v>325</v>
+      </c>
+      <c r="C818" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D818" s="10" t="s">
+        <v>1696</v>
       </c>
       <c r="E818" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F818" s="8">
         <v>1</v>
       </c>
       <c r="G818" s="9" t="s">
-        <v>1761</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" s="8">
         <v>818</v>
       </c>
-      <c r="B819" s="8">
-        <v>327</v>
-      </c>
-      <c r="C819" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D819" s="10" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E819" s="8">
+      <c r="B819" s="9">
+        <v>326</v>
+      </c>
+      <c r="C819" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D819" s="9" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E819" s="9">
         <v>2</v>
       </c>
       <c r="F819" s="8">
         <v>1</v>
       </c>
-      <c r="G819" s="10" t="s">
-        <v>1841</v>
+      <c r="G819" s="9" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -43656,16 +43656,16 @@
         <v>1046</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="E820" s="8">
         <v>2</v>
       </c>
       <c r="F820" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -43679,39 +43679,39 @@
         <v>1046</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E821" s="8">
         <v>2</v>
       </c>
       <c r="F821" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>1637</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822" s="8">
         <v>821</v>
       </c>
-      <c r="B822" s="9">
-        <v>328</v>
-      </c>
-      <c r="C822" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="D822" s="9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E822" s="9">
-        <v>5</v>
-      </c>
-      <c r="F822" s="9">
-        <v>1</v>
-      </c>
-      <c r="G822" s="9" t="s">
-        <v>1772</v>
+      <c r="B822" s="8">
+        <v>327</v>
+      </c>
+      <c r="C822" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D822" s="10" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E822" s="8">
+        <v>2</v>
+      </c>
+      <c r="F822" s="8">
+        <v>3</v>
+      </c>
+      <c r="G822" s="10" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
@@ -43719,7 +43719,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="9">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C823" s="9" t="s">
         <v>898</v>
@@ -43742,22 +43742,22 @@
         <v>823</v>
       </c>
       <c r="B824" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C824" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="D824" s="9">
-        <v>1</v>
+        <v>898</v>
+      </c>
+      <c r="D824" s="9" t="s">
+        <v>1778</v>
       </c>
       <c r="E824" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F824" s="9">
         <v>1</v>
       </c>
-      <c r="G824" s="53" t="s">
-        <v>1816</v>
+      <c r="G824" s="9" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -43768,19 +43768,19 @@
         <v>330</v>
       </c>
       <c r="C825" s="9" t="s">
-        <v>1814</v>
+        <v>879</v>
       </c>
       <c r="D825" s="9">
+        <v>1</v>
+      </c>
+      <c r="E825" s="9">
         <v>3</v>
       </c>
-      <c r="E825" s="9">
-        <v>4</v>
-      </c>
       <c r="F825" s="9">
         <v>1</v>
       </c>
       <c r="G825" s="53" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
@@ -43791,19 +43791,19 @@
         <v>330</v>
       </c>
       <c r="C826" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="D826" s="9" t="s">
-        <v>867</v>
+        <v>1814</v>
+      </c>
+      <c r="D826" s="9">
+        <v>3</v>
       </c>
       <c r="E826" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F826" s="9">
         <v>1</v>
       </c>
       <c r="G826" s="53" t="s">
-        <v>1829</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -43813,20 +43813,20 @@
       <c r="B827" s="9">
         <v>330</v>
       </c>
-      <c r="C827" s="10" t="s">
+      <c r="C827" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="D827" s="10" t="s">
-        <v>1825</v>
+      <c r="D827" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="E827" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F827" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G827" s="53" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -43836,20 +43836,20 @@
       <c r="B828" s="9">
         <v>330</v>
       </c>
-      <c r="C828" s="9" t="s">
+      <c r="C828" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="D828" s="9" t="s">
-        <v>867</v>
+      <c r="D828" s="10" t="s">
+        <v>1825</v>
       </c>
       <c r="E828" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F828" s="9">
         <v>2</v>
       </c>
-      <c r="G828" s="9" t="s">
-        <v>1828</v>
+      <c r="G828" s="53" t="s">
+        <v>1827</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -43863,16 +43863,16 @@
         <v>866</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E829" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F829" s="9">
-        <v>3</v>
-      </c>
-      <c r="G829" s="53" t="s">
-        <v>1830</v>
+        <v>2</v>
+      </c>
+      <c r="G829" s="9" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -43886,16 +43886,16 @@
         <v>866</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="E830" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F830" s="9">
         <v>3</v>
       </c>
-      <c r="G830" s="9" t="s">
-        <v>1828</v>
+      <c r="G830" s="53" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -43903,22 +43903,22 @@
         <v>830</v>
       </c>
       <c r="B831" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C831" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="D831" s="9">
-        <v>4</v>
+        <v>866</v>
+      </c>
+      <c r="D831" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="E831" s="9">
+        <v>5</v>
+      </c>
+      <c r="F831" s="9">
         <v>3</v>
       </c>
-      <c r="F831" s="9">
-        <v>1</v>
-      </c>
-      <c r="G831" s="53" t="s">
-        <v>1819</v>
+      <c r="G831" s="9" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -43932,16 +43932,16 @@
         <v>879</v>
       </c>
       <c r="D832" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E832" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F832" s="9">
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.2">
@@ -43952,19 +43952,19 @@
         <v>331</v>
       </c>
       <c r="C833" s="9" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D833" s="9" t="s">
-        <v>867</v>
+        <v>879</v>
+      </c>
+      <c r="D833" s="9">
+        <v>10</v>
       </c>
       <c r="E833" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F833" s="9">
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.2">
@@ -43972,27 +43972,46 @@
         <v>833</v>
       </c>
       <c r="B834" s="9">
+        <v>331</v>
+      </c>
+      <c r="C834" s="9" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D834" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="E834" s="9">
+        <v>5</v>
+      </c>
+      <c r="F834" s="9">
+        <v>1</v>
+      </c>
+      <c r="G834" s="53" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A835" s="8">
+        <v>834</v>
+      </c>
+      <c r="B835" s="9">
         <v>332</v>
       </c>
-      <c r="C834" s="9" t="s">
+      <c r="C835" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="D834" s="9">
+      <c r="D835" s="9">
         <v>0</v>
       </c>
-      <c r="E834" s="9">
-        <v>2</v>
-      </c>
-      <c r="F834" s="9">
-        <v>1</v>
-      </c>
-      <c r="G834" s="53" t="s">
+      <c r="E835" s="9">
+        <v>2</v>
+      </c>
+      <c r="F835" s="9">
+        <v>1</v>
+      </c>
+      <c r="G835" s="53" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A836" s="8"/>
-      <c r="G836" s="53"/>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A837" s="8"/>
@@ -44001,6 +44020,10 @@
     <row r="838" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A838" s="8"/>
       <c r="G838" s="53"/>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A839" s="8"/>
+      <c r="G839" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_10.27/permission_server_config.xlsx
+++ b/config_10.27/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$224</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$A$1:$I$502</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="1860">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8610,6 +8610,67 @@
   </si>
   <si>
     <t>3D捕鱼特殊CPL（不包含冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_21341</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP富豪福利（冲金鸡不增加进度）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21314</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip2周任务（冲金鸡不增加进度）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21016</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip3~5周任务（冲金鸡不增加进度）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21017</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip6及以上周任务（冲金鸡不增加进度）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21340</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP赢金挑战第三期（冲金鸡不增加进度）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非冲金鸡的全渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9362,11 +9423,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q401"/>
+  <dimension ref="A1:Q405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C401" sqref="C401:C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13626,9 +13687,60 @@
         <v>135</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="27"/>
-      <c r="B401" s="34"/>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="27" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B401" s="27" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C401" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="27" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B402" s="27" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C402" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="27" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B403" s="27" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C403" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="27" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B404" s="27" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C404" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="27" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B405" s="27" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C405" s="3">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -24735,11 +24847,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I839"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C794" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C806" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A801" sqref="A801:A835"/>
+      <selection pane="bottomRight" activeCell="B836" sqref="B836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44011,6 +44123,29 @@
       </c>
       <c r="G835" s="53" t="s">
         <v>1838</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A836" s="8">
+        <v>835</v>
+      </c>
+      <c r="B836" s="9">
+        <v>333</v>
+      </c>
+      <c r="C836" s="53" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D836" s="9" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E836" s="9">
+        <v>5</v>
+      </c>
+      <c r="F836" s="9">
+        <v>1</v>
+      </c>
+      <c r="G836" s="53" t="s">
+        <v>1859</v>
       </c>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.2">
